--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2184,6 +2184,806 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111986331</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>396461.0577280324</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6849446.780411444</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111986181</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>396464.1186182394</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6849438.16119879</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111986477</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>396463.6812385211</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6849392.223827818</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111986518</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>396445.8145670656</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6849381.867442117</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111986256</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>396466.3029379644</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6849431.936995172</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111986412</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>396473.4754867578</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6849402.350115799</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111986397</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>396473.4754867578</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6849402.350115799</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111982899</v>
+        <v>111986681</v>
       </c>
       <c r="B2" t="n">
         <v>90678</v>
@@ -713,16 +713,7 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -730,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396589.2571311275</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R2" t="n">
-        <v>6849418.75460017</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,19 +781,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111983171</v>
+        <v>111983592</v>
       </c>
       <c r="B3" t="n">
         <v>77268</v>
@@ -843,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396563.1969278359</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R3" t="n">
-        <v>6849514.281995319</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111986336</v>
+        <v>111986100</v>
       </c>
       <c r="B4" t="n">
-        <v>90710</v>
+        <v>78081</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,33 +922,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5449</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -965,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396472.5247574114</v>
+        <v>396461.9771545368</v>
       </c>
       <c r="R4" t="n">
-        <v>6849418.0114911</v>
+        <v>6849445.80523919</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1000,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1010,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111986344</v>
+        <v>111986603</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,7 +1066,7 @@
         <v>6849419.854335636</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1113,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111986100</v>
+        <v>111982899</v>
       </c>
       <c r="B6" t="n">
-        <v>78081</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,28 +1144,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1191,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396461.9771545368</v>
+        <v>396589.2571311275</v>
       </c>
       <c r="R6" t="n">
-        <v>6849445.80523919</v>
+        <v>6849418.75460017</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1226,7 +1217,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,7 +1227,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1263,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111986681</v>
+        <v>111985289</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,39 +1266,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396364.4099557327</v>
+        <v>396499.4264625962</v>
       </c>
       <c r="R7" t="n">
-        <v>6849419.854335636</v>
+        <v>6849743.575150267</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1339,7 +1335,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1349,7 +1345,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1376,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983468</v>
+        <v>111983171</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1417,10 +1413,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396573.4835763004</v>
+        <v>396563.1969278359</v>
       </c>
       <c r="R8" t="n">
-        <v>6849572.23680685</v>
+        <v>6849514.281995319</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1462,7 +1458,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1477,12 +1473,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1611,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111983502</v>
+        <v>111986344</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,25 +1619,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,13 +1648,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396573.4835763004</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R10" t="n">
-        <v>6849572.23680685</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1687,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1697,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111983592</v>
+        <v>111983502</v>
       </c>
       <c r="B11" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1732,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1800,7 +1796,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1810,7 +1806,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1837,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111985289</v>
+        <v>111983468</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,40 +1849,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396499.4264625962</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R12" t="n">
-        <v>6849743.575150267</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1918,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1928,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1955,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111986603</v>
+        <v>111983906</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,39 +1958,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396364.4099557327</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R13" t="n">
-        <v>6849419.854335636</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2031,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2041,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2068,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111983906</v>
+        <v>111986336</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90710</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,40 +2080,44 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5449</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396573.4835763004</v>
+        <v>396472.5247574114</v>
       </c>
       <c r="R14" t="n">
-        <v>6849572.23680685</v>
+        <v>6849418.0114911</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2174,22 +2174,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111986331</v>
+        <v>111983114</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2202,38 +2202,48 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396461.0577280324</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R15" t="n">
-        <v>6849446.780411444</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2262,7 +2272,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2272,7 +2282,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2281,6 +2291,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2292,7 +2303,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2405,14 +2416,14 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111986477</v>
+        <v>112037904</v>
       </c>
       <c r="B17" t="n">
         <v>90666</v>
@@ -2446,17 +2457,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396463.6812385211</v>
+        <v>396312.5930067538</v>
       </c>
       <c r="R17" t="n">
-        <v>6849392.223827818</v>
+        <v>6849479.212989882</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2488,7 +2498,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2498,7 +2508,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2513,22 +2523,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111986518</v>
+        <v>111986256</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2537,25 +2547,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2566,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396445.8145670656</v>
+        <v>396466.3029379644</v>
       </c>
       <c r="R18" t="n">
-        <v>6849381.867442117</v>
+        <v>6849431.936995172</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2601,7 +2611,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2611,7 +2621,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2631,17 +2641,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111986256</v>
+        <v>111983769</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2650,42 +2660,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396466.3029379644</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R19" t="n">
-        <v>6849431.936995172</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2714,7 +2726,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2724,7 +2736,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2733,6 +2745,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2744,17 +2757,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986412</v>
+        <v>111986477</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2767,21 +2780,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2792,10 +2805,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396473.4754867578</v>
+        <v>396463.6812385211</v>
       </c>
       <c r="R20" t="n">
-        <v>6849402.350115799</v>
+        <v>6849392.223827818</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2857,17 +2870,17 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111986397</v>
+        <v>111983778</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2876,51 +2889,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396473.4754867578</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R21" t="n">
-        <v>6849402.350115799</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2959,7 +2965,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2968,6 +2974,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2979,10 +2986,707 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112037911</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78081</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>229821</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vedflamlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ramboldia elabens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>396463.4303860952</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6849431.076249421</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111983867</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>mellandammen S.om, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>396554.6722169702</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6849624.909981783</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
           <t>Bo karlstens</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr"/>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111986518</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>396445.8145670656</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6849381.867442117</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111986412</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>396473.4754867578</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6849402.350115799</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111986331</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>396461.0577280324</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6849446.780411444</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111986397</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Mellandammen (Mellandammen), Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>396473.4754867578</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6849402.350115799</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Bo karlstens</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111986518</v>
+        <v>111986412</v>
       </c>
       <c r="B24" t="n">
         <v>90678</v>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396445.8145670656</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R24" t="n">
-        <v>6849381.867442117</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3342,10 +3342,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986412</v>
+        <v>111986331</v>
       </c>
       <c r="B25" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396473.4754867578</v>
+        <v>396461.0577280324</v>
       </c>
       <c r="R25" t="n">
-        <v>6849402.350115799</v>
+        <v>6849446.780411444</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3455,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111986331</v>
+        <v>111986518</v>
       </c>
       <c r="B26" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3467,25 +3467,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396461.0577280324</v>
+        <v>396445.8145670656</v>
       </c>
       <c r="R26" t="n">
-        <v>6849446.780411444</v>
+        <v>6849381.867442117</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3688,6 +3688,245 @@
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112060421</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>396290.5394533524</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6849408.82232627</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112060422</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>396456.0580252151</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6849454.036982723</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111986681</v>
+        <v>111986488</v>
       </c>
       <c r="B2" t="n">
         <v>90678</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111983592</v>
+        <v>111983752</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111986100</v>
+        <v>111982899</v>
       </c>
       <c r="B4" t="n">
-        <v>78081</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,28 +918,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -947,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396461.9771545368</v>
+        <v>396589.2571311275</v>
       </c>
       <c r="R4" t="n">
-        <v>6849445.80523919</v>
+        <v>6849418.75460017</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,7 +991,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +1001,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111986603</v>
+        <v>111986336</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,28 +1040,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1060,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396364.4099557327</v>
+        <v>396472.5247574114</v>
       </c>
       <c r="R5" t="n">
-        <v>6849419.854335636</v>
+        <v>6849418.0114911</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1095,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1120,22 +1138,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111982899</v>
+        <v>111986603</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,33 +1166,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1182,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396589.2571311275</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R6" t="n">
-        <v>6849418.75460017</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1227,7 +1236,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1242,19 +1251,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111985289</v>
+        <v>111983906</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1300,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396499.4264625962</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R7" t="n">
-        <v>6849743.575150267</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,7 +1344,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1345,7 +1354,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983171</v>
+        <v>111983468</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1397,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1413,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396563.1969278359</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R8" t="n">
-        <v>6849514.281995319</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1448,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1458,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,22 +1482,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983004</v>
+        <v>111983171</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,33 +1510,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>396550.693900423</v>
+        <v>396563.1969278359</v>
       </c>
       <c r="R9" t="n">
-        <v>6849477.236253413</v>
+        <v>6849514.281995319</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111986344</v>
+        <v>111986100</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,21 +1623,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396364.4099557327</v>
+        <v>396461.9771545368</v>
       </c>
       <c r="R10" t="n">
-        <v>6849419.854335636</v>
+        <v>6849445.80523919</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,22 +1708,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111983502</v>
+        <v>111983592</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,25 +1732,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1833,10 +1833,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111983468</v>
+        <v>111986344</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1849,21 +1849,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,13 +1874,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396573.4835763004</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R12" t="n">
-        <v>6849572.23680685</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111983906</v>
+        <v>111985289</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396573.4835763004</v>
+        <v>396499.4264625962</v>
       </c>
       <c r="R13" t="n">
-        <v>6849572.23680685</v>
+        <v>6849743.575150267</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111986336</v>
+        <v>111983004</v>
       </c>
       <c r="B14" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,26 +2080,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396472.5247574114</v>
+        <v>396550.693900423</v>
       </c>
       <c r="R14" t="n">
-        <v>6849418.0114911</v>
+        <v>6849477.236253413</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2186,10 +2186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111983114</v>
+        <v>111983867</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2202,26 +2202,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396581.3685419874</v>
+        <v>396554.6722169702</v>
       </c>
       <c r="R15" t="n">
-        <v>6849503.312715433</v>
+        <v>6849624.909981783</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2310,7 +2310,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111986181</v>
+        <v>111986331</v>
       </c>
       <c r="B16" t="n">
         <v>90658</v>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396464.1186182394</v>
+        <v>396461.0577280324</v>
       </c>
       <c r="R16" t="n">
-        <v>6849438.16119879</v>
+        <v>6849446.780411444</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2423,10 +2423,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112037904</v>
+        <v>111986397</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2435,38 +2435,48 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396312.5930067538</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R17" t="n">
-        <v>6849479.212989882</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2498,7 +2508,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2508,7 +2518,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2523,22 +2533,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111986256</v>
+        <v>111983769</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2547,42 +2557,44 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396466.3029379644</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R18" t="n">
-        <v>6849431.936995172</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2611,7 +2623,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2621,7 +2633,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2630,6 +2642,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2648,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111983769</v>
+        <v>111986256</v>
       </c>
       <c r="B19" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2660,44 +2673,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396581.3685419874</v>
+        <v>396466.3029379644</v>
       </c>
       <c r="R19" t="n">
-        <v>6849503.312715433</v>
+        <v>6849431.936995172</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2726,7 +2737,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2736,7 +2747,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2745,7 +2756,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2764,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986477</v>
+        <v>111986412</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2780,21 +2790,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2805,10 +2815,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396463.6812385211</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R20" t="n">
-        <v>6849392.223827818</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2877,10 +2887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111983778</v>
+        <v>111983114</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2889,29 +2899,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -2993,10 +3011,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112037911</v>
+        <v>111986181</v>
       </c>
       <c r="B22" t="n">
-        <v>78081</v>
+        <v>90658</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3009,37 +3027,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396463.4303860952</v>
+        <v>396464.1186182394</v>
       </c>
       <c r="R22" t="n">
-        <v>6849431.076249421</v>
+        <v>6849438.16119879</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3068,7 +3087,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3078,7 +3097,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3093,22 +3112,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111983867</v>
+        <v>112037911</v>
       </c>
       <c r="B23" t="n">
-        <v>90658</v>
+        <v>78081</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3121,48 +3140,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>229821</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396554.6722169702</v>
+        <v>396463.4303860952</v>
       </c>
       <c r="R23" t="n">
-        <v>6849624.909981783</v>
+        <v>6849431.076249421</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3191,7 +3199,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3201,7 +3209,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3210,26 +3218,25 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111986412</v>
+        <v>111986518</v>
       </c>
       <c r="B24" t="n">
         <v>90678</v>
@@ -3270,10 +3277,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396473.4754867578</v>
+        <v>396445.8145670656</v>
       </c>
       <c r="R24" t="n">
-        <v>6849402.350115799</v>
+        <v>6849381.867442117</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3305,7 +3312,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3315,7 +3322,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3342,10 +3349,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986331</v>
+        <v>111986477</v>
       </c>
       <c r="B25" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3354,25 +3361,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3383,10 +3390,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396461.0577280324</v>
+        <v>396463.6812385211</v>
       </c>
       <c r="R25" t="n">
-        <v>6849446.780411444</v>
+        <v>6849392.223827818</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3418,7 +3425,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3428,7 +3435,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3455,10 +3462,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111986518</v>
+        <v>112037904</v>
       </c>
       <c r="B26" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3471,35 +3478,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396445.8145670656</v>
+        <v>396312.5930067538</v>
       </c>
       <c r="R26" t="n">
-        <v>6849381.867442117</v>
+        <v>6849479.212989882</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3531,7 +3537,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3541,7 +3547,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3556,22 +3562,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111986397</v>
+        <v>111983778</v>
       </c>
       <c r="B27" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3580,51 +3586,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396473.4754867578</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R27" t="n">
-        <v>6849402.350115799</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3653,7 +3652,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3663,7 +3662,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3672,6 +3671,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112060421</v>
+        <v>112060422</v>
       </c>
       <c r="B28" t="n">
         <v>90660</v>
@@ -3723,7 +3723,16 @@
           <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -3732,13 +3741,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>396290.5394533524</v>
+        <v>396456.0580252151</v>
       </c>
       <c r="R28" t="n">
-        <v>6849408.82232627</v>
+        <v>6849454.036982723</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3805,7 +3814,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112060422</v>
+        <v>112060421</v>
       </c>
       <c r="B29" t="n">
         <v>90660</v>
@@ -3838,16 +3847,7 @@
           <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -3856,13 +3856,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>396456.0580252151</v>
+        <v>396290.5394533524</v>
       </c>
       <c r="R29" t="n">
-        <v>6849454.036982723</v>
+        <v>6849408.82232627</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111986488</v>
+        <v>111985289</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396364.4099557327</v>
+        <v>396499.4264625962</v>
       </c>
       <c r="R2" t="n">
-        <v>6849419.854335636</v>
+        <v>6849743.575150267</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +761,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +771,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111983752</v>
+        <v>111986590</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396573.4835763004</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R3" t="n">
-        <v>6849572.23680685</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111982899</v>
+        <v>111986100</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>78081</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,37 +923,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -956,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396589.2571311275</v>
+        <v>396461.9771545368</v>
       </c>
       <c r="R4" t="n">
-        <v>6849418.75460017</v>
+        <v>6849445.80523919</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1001,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1150,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111986603</v>
+        <v>111986344</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,25 +1158,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1197,7 +1193,7 @@
         <v>6849419.854335636</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1226,7 +1222,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,7 +1232,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1263,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111983906</v>
+        <v>111983468</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,30 +1275,25 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
@@ -1344,7 +1335,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1354,7 +1345,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1381,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983468</v>
+        <v>111983906</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,25 +1388,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
@@ -1457,7 +1453,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1467,7 +1463,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1494,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983171</v>
+        <v>111983502</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,25 +1502,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1535,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>396563.1969278359</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R9" t="n">
-        <v>6849514.281995319</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1570,7 +1566,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1580,7 +1576,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1595,22 +1591,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111986100</v>
+        <v>111982899</v>
       </c>
       <c r="B10" t="n">
-        <v>78081</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,28 +1615,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1653,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396461.9771545368</v>
+        <v>396589.2571311275</v>
       </c>
       <c r="R10" t="n">
-        <v>6849445.80523919</v>
+        <v>6849418.75460017</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1683,7 +1688,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1693,7 +1698,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,7 +1725,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111983592</v>
+        <v>111983171</v>
       </c>
       <c r="B11" t="n">
         <v>77268</v>
@@ -1761,10 +1766,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>396573.4835763004</v>
+        <v>396563.1969278359</v>
       </c>
       <c r="R11" t="n">
-        <v>6849572.23680685</v>
+        <v>6849514.281995319</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1801,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1806,7 +1811,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1821,22 +1826,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111986344</v>
+        <v>111986603</v>
       </c>
       <c r="B12" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,25 +1850,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,7 +1885,7 @@
         <v>6849419.854335636</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1909,7 +1914,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1924,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111985289</v>
+        <v>111983592</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1962,40 +1967,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396499.4264625962</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R13" t="n">
-        <v>6849743.575150267</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2186,10 +2186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111983867</v>
+        <v>111986397</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2202,21 +2202,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2230,20 +2230,19 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396554.6722169702</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R15" t="n">
-        <v>6849624.909981783</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2272,7 +2271,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2282,7 +2281,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2291,7 +2290,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2310,10 +2308,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111986331</v>
+        <v>111983769</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,42 +2320,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396461.0577280324</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R16" t="n">
-        <v>6849446.780411444</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2405,6 +2405,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2423,10 +2424,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111986397</v>
+        <v>111983867</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2439,21 +2440,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2467,19 +2468,20 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396473.4754867578</v>
+        <v>396554.6722169702</v>
       </c>
       <c r="R17" t="n">
-        <v>6849402.350115799</v>
+        <v>6849624.909981783</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2518,7 +2520,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2527,6 +2529,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111983769</v>
+        <v>111986477</v>
       </c>
       <c r="B18" t="n">
         <v>90666</v>
@@ -2579,22 +2582,20 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396581.3685419874</v>
+        <v>396463.6812385211</v>
       </c>
       <c r="R18" t="n">
-        <v>6849503.312715433</v>
+        <v>6849392.223827818</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2623,7 +2624,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2633,7 +2634,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2642,7 +2643,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111986256</v>
+        <v>111986518</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,25 +2673,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396466.3029379644</v>
+        <v>396445.8145670656</v>
       </c>
       <c r="R19" t="n">
-        <v>6849431.936995172</v>
+        <v>6849381.867442117</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2774,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986412</v>
+        <v>111986256</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,25 +2786,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396473.4754867578</v>
+        <v>396466.3029379644</v>
       </c>
       <c r="R20" t="n">
-        <v>6849402.350115799</v>
+        <v>6849431.936995172</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2887,10 +2887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111983114</v>
+        <v>111986181</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2903,45 +2903,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396581.3685419874</v>
+        <v>396464.1186182394</v>
       </c>
       <c r="R21" t="n">
-        <v>6849503.312715433</v>
+        <v>6849438.16119879</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2973,7 +2963,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2983,7 +2973,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2992,7 +2982,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3011,10 +3000,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986181</v>
+        <v>111983778</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,39 +3012,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396464.1186182394</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R22" t="n">
-        <v>6849438.16119879</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3087,7 +3078,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3097,7 +3088,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3106,6 +3097,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3124,10 +3116,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112037911</v>
+        <v>111986331</v>
       </c>
       <c r="B23" t="n">
-        <v>78081</v>
+        <v>90658</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3140,37 +3132,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396463.4303860952</v>
+        <v>396461.0577280324</v>
       </c>
       <c r="R23" t="n">
-        <v>6849431.076249421</v>
+        <v>6849446.780411444</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3199,7 +3192,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3209,7 +3202,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3224,22 +3217,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111986518</v>
+        <v>111983114</v>
       </c>
       <c r="B24" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,42 +3241,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396445.8145670656</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R24" t="n">
-        <v>6849381.867442117</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3322,7 +3325,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3331,6 +3334,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3349,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986477</v>
+        <v>111986412</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,21 +3369,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3390,10 +3394,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396463.6812385211</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R25" t="n">
-        <v>6849392.223827818</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3574,10 +3578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111983778</v>
+        <v>112037911</v>
       </c>
       <c r="B27" t="n">
-        <v>90678</v>
+        <v>78081</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3586,44 +3590,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>229821</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396581.3685419874</v>
+        <v>396463.4303860952</v>
       </c>
       <c r="R27" t="n">
-        <v>6849503.312715433</v>
+        <v>6849431.076249421</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3652,7 +3653,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3662,7 +3663,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3671,19 +3672,18 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3927,6 +3927,352 @@
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112116466</v>
+      </c>
+      <c r="B30" t="n">
+        <v>76495</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6487</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Blågrå svartspik</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis fennica</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Laurila) Tibell</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>396468.1703660418</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6849430.933213717</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112116465</v>
+      </c>
+      <c r="B31" t="n">
+        <v>76495</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6487</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Blågrå svartspik</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis fennica</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Laurila) Tibell</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>396463.1956404942</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6849376.131951283</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112116463</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77268</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Mellandammen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>396463.1956404942</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6849376.131951283</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Särna</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111985289</v>
+        <v>111986681</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396499.4264625962</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R2" t="n">
-        <v>6849743.575150267</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -771,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111986590</v>
+        <v>111986336</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,28 +805,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396364.4099557327</v>
+        <v>396472.5247574114</v>
       </c>
       <c r="R3" t="n">
-        <v>6849419.854335636</v>
+        <v>6849418.0114911</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +888,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,12 +903,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
@@ -1024,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111986336</v>
+        <v>111983468</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,33 +1044,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1074,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396472.5247574114</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R5" t="n">
-        <v>6849418.0114911</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1109,7 +1104,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1119,7 +1114,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1134,22 +1129,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111986344</v>
+        <v>111983502</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,25 +1153,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1187,13 +1182,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396364.4099557327</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R6" t="n">
-        <v>6849419.854335636</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1222,7 +1217,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1232,7 +1227,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1259,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111983468</v>
+        <v>111986344</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1270,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,13 +1295,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396573.4835763004</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R7" t="n">
-        <v>6849572.23680685</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1335,7 +1330,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1345,7 +1340,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983906</v>
+        <v>111983004</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90660</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,40 +1383,44 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396573.4835763004</v>
+        <v>396550.693900423</v>
       </c>
       <c r="R8" t="n">
-        <v>6849572.23680685</v>
+        <v>6849477.236253413</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1453,7 +1452,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1463,7 +1462,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1478,22 +1477,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983502</v>
+        <v>111983171</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,25 +1501,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1530,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>396573.4835763004</v>
+        <v>396563.1969278359</v>
       </c>
       <c r="R9" t="n">
-        <v>6849572.23680685</v>
+        <v>6849514.281995319</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1576,7 +1575,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1591,22 +1590,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111982899</v>
+        <v>111983592</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,37 +1614,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1653,10 +1643,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396589.2571311275</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R10" t="n">
-        <v>6849418.75460017</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1678,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1698,7 +1688,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1713,22 +1703,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111983171</v>
+        <v>111986603</v>
       </c>
       <c r="B11" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1737,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1766,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>396563.1969278359</v>
+        <v>396364.4099557327</v>
       </c>
       <c r="R11" t="n">
-        <v>6849514.281995319</v>
+        <v>6849419.854335636</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1801,7 +1791,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1811,7 +1801,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,22 +1816,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111986603</v>
+        <v>111985289</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,39 +1840,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396364.4099557327</v>
+        <v>396499.4264625962</v>
       </c>
       <c r="R12" t="n">
-        <v>6849419.854335636</v>
+        <v>6849743.575150267</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1914,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1924,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111983592</v>
+        <v>111982899</v>
       </c>
       <c r="B13" t="n">
-        <v>77268</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,28 +1958,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1992,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396573.4835763004</v>
+        <v>396589.2571311275</v>
       </c>
       <c r="R13" t="n">
-        <v>6849572.23680685</v>
+        <v>6849418.75460017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2031,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2041,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2052,22 +2056,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111983004</v>
+        <v>111983906</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,44 +2084,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396550.693900423</v>
+        <v>396573.4835763004</v>
       </c>
       <c r="R14" t="n">
-        <v>6849477.236253413</v>
+        <v>6849572.23680685</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2174,22 +2174,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111986397</v>
+        <v>111986518</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2198,37 +2198,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2236,10 +2227,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396473.4754867578</v>
+        <v>396445.8145670656</v>
       </c>
       <c r="R15" t="n">
-        <v>6849402.350115799</v>
+        <v>6849381.867442117</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2271,7 +2262,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2281,7 +2272,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2308,7 +2299,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111983769</v>
+        <v>111986477</v>
       </c>
       <c r="B16" t="n">
         <v>90666</v>
@@ -2342,22 +2333,20 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396581.3685419874</v>
+        <v>396463.6812385211</v>
       </c>
       <c r="R16" t="n">
-        <v>6849503.312715433</v>
+        <v>6849392.223827818</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2386,7 +2375,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2396,7 +2385,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2405,7 +2394,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2424,10 +2412,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111983867</v>
+        <v>112037911</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>78081</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2440,48 +2428,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>229821</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396554.6722169702</v>
+        <v>396463.4303860952</v>
       </c>
       <c r="R17" t="n">
-        <v>6849624.909981783</v>
+        <v>6849431.076249421</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2510,7 +2487,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2520,7 +2497,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2529,29 +2506,28 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111986477</v>
+        <v>111983867</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,42 +2536,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396463.6812385211</v>
+        <v>396554.6722169702</v>
       </c>
       <c r="R18" t="n">
-        <v>6849392.223827818</v>
+        <v>6849624.909981783</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2624,7 +2610,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2634,7 +2620,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2643,6 +2629,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2661,7 +2648,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111986518</v>
+        <v>111983778</v>
       </c>
       <c r="B19" t="n">
         <v>90678</v>
@@ -2695,20 +2682,22 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396445.8145670656</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R19" t="n">
-        <v>6849381.867442117</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2737,7 +2726,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2747,7 +2736,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2756,6 +2745,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2774,10 +2764,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986256</v>
+        <v>112037904</v>
       </c>
       <c r="B20" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,39 +2776,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396466.3029379644</v>
+        <v>396312.5930067538</v>
       </c>
       <c r="R20" t="n">
-        <v>6849431.936995172</v>
+        <v>6849479.212989882</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2850,7 +2839,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2860,7 +2849,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2875,22 +2864,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111986181</v>
+        <v>111983769</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2899,39 +2888,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396464.1186182394</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R21" t="n">
-        <v>6849438.16119879</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2963,7 +2954,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2973,7 +2964,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2982,6 +2973,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3000,10 +2992,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111983778</v>
+        <v>111986181</v>
       </c>
       <c r="B22" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3012,41 +3004,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396581.3685419874</v>
+        <v>396464.1186182394</v>
       </c>
       <c r="R22" t="n">
-        <v>6849503.312715433</v>
+        <v>6849438.16119879</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3078,7 +3068,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3088,7 +3078,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3097,7 +3087,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3116,10 +3105,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111986331</v>
+        <v>111986397</v>
       </c>
       <c r="B23" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3132,24 +3121,33 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3157,10 +3155,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396461.0577280324</v>
+        <v>396473.4754867578</v>
       </c>
       <c r="R23" t="n">
-        <v>6849446.780411444</v>
+        <v>6849402.350115799</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3192,7 +3190,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3202,7 +3200,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3229,7 +3227,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111983114</v>
+        <v>111986256</v>
       </c>
       <c r="B24" t="n">
         <v>90660</v>
@@ -3262,31 +3260,21 @@
           <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396581.3685419874</v>
+        <v>396466.3029379644</v>
       </c>
       <c r="R24" t="n">
-        <v>6849503.312715433</v>
+        <v>6849431.936995172</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3315,7 +3303,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3325,7 +3313,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3334,7 +3322,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3466,10 +3453,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112037904</v>
+        <v>111983114</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3478,41 +3465,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396312.5930067538</v>
+        <v>396581.3685419874</v>
       </c>
       <c r="R26" t="n">
-        <v>6849479.212989882</v>
+        <v>6849503.312715433</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3541,7 +3539,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3551,7 +3549,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3560,28 +3558,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112037911</v>
+        <v>111986331</v>
       </c>
       <c r="B27" t="n">
-        <v>78081</v>
+        <v>90658</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3594,37 +3593,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396463.4303860952</v>
+        <v>396461.0577280324</v>
       </c>
       <c r="R27" t="n">
-        <v>6849431.076249421</v>
+        <v>6849446.780411444</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3678,12 +3678,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112116465</v>
+        <v>112116463</v>
       </c>
       <c r="B31" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4062,21 +4062,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4134,11 +4134,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4156,17 +4151,17 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112116463</v>
+        <v>112116465</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>76495</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4179,21 +4174,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4251,6 +4246,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111986681</v>
+        <v>111982899</v>
       </c>
       <c r="B2" t="n">
         <v>90678</v>
@@ -713,7 +713,16 @@
           <t>Banker</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -721,10 +730,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396364.4099557327</v>
+        <v>396589</v>
       </c>
       <c r="R2" t="n">
-        <v>6849419.854335636</v>
+        <v>6849419</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +790,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111986336</v>
+        <v>111983502</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,37 +814,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396472.5247574114</v>
+        <v>396573</v>
       </c>
       <c r="R3" t="n">
-        <v>6849418.0114911</v>
+        <v>6849572</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,22 +903,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111986100</v>
+        <v>111986681</v>
       </c>
       <c r="B4" t="n">
-        <v>78081</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,25 +927,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396461.9771545368</v>
+        <v>396364</v>
       </c>
       <c r="R4" t="n">
-        <v>6849445.80523919</v>
+        <v>6849420</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,7 +991,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,22 +1016,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111983468</v>
+        <v>111983592</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396573.4835763004</v>
+        <v>396573</v>
       </c>
       <c r="R5" t="n">
-        <v>6849572.23680685</v>
+        <v>6849572</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111983502</v>
+        <v>111986603</v>
       </c>
       <c r="B6" t="n">
         <v>90666</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396573.4835763004</v>
+        <v>396364</v>
       </c>
       <c r="R6" t="n">
-        <v>6849572.23680685</v>
+        <v>6849420</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111986344</v>
+        <v>111985289</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,38 +1270,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396364.4099557327</v>
+        <v>396499</v>
       </c>
       <c r="R7" t="n">
-        <v>6849419.854335636</v>
+        <v>6849744</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1340,7 +1345,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983004</v>
+        <v>111986344</v>
       </c>
       <c r="B8" t="n">
-        <v>90660</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,33 +1388,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4362</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1417,13 +1413,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396550.693900423</v>
+        <v>396364</v>
       </c>
       <c r="R8" t="n">
-        <v>6849477.236253413</v>
+        <v>6849420</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1462,7 +1458,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1477,12 +1473,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1530,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>396563.1969278359</v>
+        <v>396563</v>
       </c>
       <c r="R9" t="n">
-        <v>6849514.281995319</v>
+        <v>6849514</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1602,10 +1598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111983592</v>
+        <v>111986100</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1618,21 +1614,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1643,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396573.4835763004</v>
+        <v>396462</v>
       </c>
       <c r="R10" t="n">
-        <v>6849572.23680685</v>
+        <v>6849446</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1678,7 +1674,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1688,7 +1684,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1703,22 +1699,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111986603</v>
+        <v>111983004</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,28 +1723,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1756,10 +1761,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>396364.4099557327</v>
+        <v>396551</v>
       </c>
       <c r="R11" t="n">
-        <v>6849419.854335636</v>
+        <v>6849477</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1791,7 +1796,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1801,7 +1806,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1816,22 +1821,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111985289</v>
+        <v>111983468</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1844,40 +1849,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396499.4264625962</v>
+        <v>396573</v>
       </c>
       <c r="R12" t="n">
-        <v>6849743.575150267</v>
+        <v>6849572</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111982899</v>
+        <v>111986336</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1958,30 +1958,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396589.2571311275</v>
+        <v>396473</v>
       </c>
       <c r="R13" t="n">
-        <v>6849418.75460017</v>
+        <v>6849418</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396573.4835763004</v>
+        <v>396573</v>
       </c>
       <c r="R14" t="n">
-        <v>6849572.23680685</v>
+        <v>6849572</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111986518</v>
+        <v>111986256</v>
       </c>
       <c r="B15" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2198,25 +2198,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396445.8145670656</v>
+        <v>396466</v>
       </c>
       <c r="R15" t="n">
-        <v>6849381.867442117</v>
+        <v>6849432</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2299,10 +2299,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111986477</v>
+        <v>111986412</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2315,21 +2315,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396463.6812385211</v>
+        <v>396473</v>
       </c>
       <c r="R16" t="n">
-        <v>6849392.223827818</v>
+        <v>6849402</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112037911</v>
+        <v>111986181</v>
       </c>
       <c r="B17" t="n">
-        <v>78081</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2428,37 +2428,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396463.4303860952</v>
+        <v>396464</v>
       </c>
       <c r="R17" t="n">
-        <v>6849431.076249421</v>
+        <v>6849438</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2487,7 +2488,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2497,7 +2498,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2512,22 +2513,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111983867</v>
+        <v>111983114</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2540,26 +2541,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2575,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396554.6722169702</v>
+        <v>396581</v>
       </c>
       <c r="R18" t="n">
-        <v>6849624.909981783</v>
+        <v>6849503</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2610,7 +2611,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2620,7 +2621,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2648,10 +2649,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111983778</v>
+        <v>111986397</v>
       </c>
       <c r="B19" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2660,44 +2661,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396581.3685419874</v>
+        <v>396473</v>
       </c>
       <c r="R19" t="n">
-        <v>6849503.312715433</v>
+        <v>6849402</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2726,7 +2734,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2736,7 +2744,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2745,7 +2753,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2764,7 +2771,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112037904</v>
+        <v>111986477</v>
       </c>
       <c r="B20" t="n">
         <v>90666</v>
@@ -2798,16 +2805,17 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396312.5930067538</v>
+        <v>396464</v>
       </c>
       <c r="R20" t="n">
-        <v>6849479.212989882</v>
+        <v>6849392</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2839,7 +2847,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2849,7 +2857,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2864,22 +2872,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111983769</v>
+        <v>111983867</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2888,29 +2896,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -2919,10 +2935,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396581.3685419874</v>
+        <v>396555</v>
       </c>
       <c r="R21" t="n">
-        <v>6849503.312715433</v>
+        <v>6849625</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2954,7 +2970,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2964,7 +2980,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2992,7 +3008,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986181</v>
+        <v>111986331</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3033,13 +3049,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396464.1186182394</v>
+        <v>396461</v>
       </c>
       <c r="R22" t="n">
-        <v>6849438.16119879</v>
+        <v>6849447</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3068,7 +3084,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3078,7 +3094,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3105,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111986397</v>
+        <v>111983769</v>
       </c>
       <c r="B23" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3117,51 +3133,44 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396473.4754867578</v>
+        <v>396581</v>
       </c>
       <c r="R23" t="n">
-        <v>6849402.350115799</v>
+        <v>6849503</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3190,7 +3199,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3200,7 +3209,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3209,6 +3218,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3227,10 +3237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111986256</v>
+        <v>111983778</v>
       </c>
       <c r="B24" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3239,42 +3249,44 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396466.3029379644</v>
+        <v>396581</v>
       </c>
       <c r="R24" t="n">
-        <v>6849431.936995172</v>
+        <v>6849503</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3313,7 +3325,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3322,6 +3334,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3340,7 +3353,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986412</v>
+        <v>111986518</v>
       </c>
       <c r="B25" t="n">
         <v>90678</v>
@@ -3381,10 +3394,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396473.4754867578</v>
+        <v>396446</v>
       </c>
       <c r="R25" t="n">
-        <v>6849402.350115799</v>
+        <v>6849382</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3416,7 +3429,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3426,7 +3439,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3453,10 +3466,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111983114</v>
+        <v>112037911</v>
       </c>
       <c r="B26" t="n">
-        <v>90660</v>
+        <v>78081</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3469,48 +3482,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396581.3685419874</v>
+        <v>396463</v>
       </c>
       <c r="R26" t="n">
-        <v>6849503.312715433</v>
+        <v>6849431</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3537,50 +3539,39 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111986331</v>
+        <v>112037904</v>
       </c>
       <c r="B27" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3589,39 +3580,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396461.0577280324</v>
+        <v>396313</v>
       </c>
       <c r="R27" t="n">
-        <v>6849446.780411444</v>
+        <v>6849479</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3651,19 +3641,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>15:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3678,12 +3658,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3741,10 +3721,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>396456.0580252151</v>
+        <v>396456</v>
       </c>
       <c r="R28" t="n">
-        <v>6849454.036982723</v>
+        <v>6849454</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3774,19 +3754,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3856,10 +3826,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>396290.5394533524</v>
+        <v>396291</v>
       </c>
       <c r="R29" t="n">
-        <v>6849408.82232627</v>
+        <v>6849409</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3889,19 +3859,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3929,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112116466</v>
+        <v>112116465</v>
       </c>
       <c r="B30" t="n">
         <v>76495</v>
@@ -3969,10 +3929,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>396468.1703660418</v>
+        <v>396463</v>
       </c>
       <c r="R30" t="n">
-        <v>6849430.933213717</v>
+        <v>6849376</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -4002,19 +3962,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -4046,10 +3996,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112116463</v>
+        <v>112116466</v>
       </c>
       <c r="B31" t="n">
-        <v>77268</v>
+        <v>76495</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4062,21 +4012,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4086,10 +4036,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>396463.1956404942</v>
+        <v>396468</v>
       </c>
       <c r="R31" t="n">
-        <v>6849376.131951283</v>
+        <v>6849431</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -4119,19 +4069,14 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4151,17 +4096,17 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112116465</v>
+        <v>112116463</v>
       </c>
       <c r="B32" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4174,21 +4119,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4198,10 +4143,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>396463.1956404942</v>
+        <v>396463</v>
       </c>
       <c r="R32" t="n">
-        <v>6849376.131951283</v>
+        <v>6849376</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4231,24 +4176,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4268,7 +4198,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111982899</v>
+        <v>111985289</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,48 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>396589</v>
+        <v>396499</v>
       </c>
       <c r="R2" t="n">
-        <v>6849419</v>
+        <v>6849744</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,7 +761,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +771,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,12 +786,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -805,7 +801,7 @@
         <v>111983502</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -915,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111986681</v>
+        <v>111983468</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -956,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396364</v>
+        <v>396573</v>
       </c>
       <c r="R4" t="n">
-        <v>6849420</v>
+        <v>6849572</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1001,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111983592</v>
+        <v>111986100</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>78202</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1069,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396573</v>
+        <v>396462</v>
       </c>
       <c r="R5" t="n">
-        <v>6849572</v>
+        <v>6849446</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1114,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,22 +1125,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111986603</v>
+        <v>111983004</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>90794</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,28 +1149,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1182,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396364</v>
+        <v>396551</v>
       </c>
       <c r="R6" t="n">
-        <v>6849420</v>
+        <v>6849477</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,7 +1222,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1227,7 +1232,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1242,22 +1247,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111985289</v>
+        <v>111983171</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>77389</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,40 +1275,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396499</v>
+        <v>396563</v>
       </c>
       <c r="R7" t="n">
-        <v>6849744</v>
+        <v>6849514</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,22 +1360,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111986344</v>
+        <v>111986336</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>90844</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,24 +1388,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1413,13 +1422,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396364</v>
+        <v>396473</v>
       </c>
       <c r="R8" t="n">
-        <v>6849420</v>
+        <v>6849418</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1448,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1458,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,22 +1482,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983171</v>
+        <v>111983592</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>77389</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>396563</v>
+        <v>396573</v>
       </c>
       <c r="R9" t="n">
-        <v>6849514</v>
+        <v>6849572</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1561,7 +1570,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1571,7 +1580,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1586,22 +1595,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111986100</v>
+        <v>111983906</v>
       </c>
       <c r="B10" t="n">
-        <v>78081</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1614,35 +1623,40 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>396462</v>
+        <v>396573</v>
       </c>
       <c r="R10" t="n">
-        <v>6849446</v>
+        <v>6849572</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1674,7 +1688,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1684,7 +1698,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1699,22 +1713,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111983004</v>
+        <v>111982899</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90812</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,30 +1737,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1761,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>396551</v>
+        <v>396589</v>
       </c>
       <c r="R11" t="n">
-        <v>6849477</v>
+        <v>6849419</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1810,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1806,7 +1820,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1833,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111983468</v>
+        <v>111986412</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90812</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,25 +1859,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,13 +1888,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396573</v>
+        <v>396473</v>
       </c>
       <c r="R12" t="n">
-        <v>6849572</v>
+        <v>6849402</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1909,7 +1923,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1933,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1934,22 +1948,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111986336</v>
+        <v>111983778</v>
       </c>
       <c r="B13" t="n">
-        <v>90710</v>
+        <v>90812</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1958,48 +1972,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396473</v>
+        <v>396581</v>
       </c>
       <c r="R13" t="n">
-        <v>6849418</v>
+        <v>6849503</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2031,7 +2038,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2041,7 +2048,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2050,28 +2057,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111983906</v>
+        <v>111983114</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90794</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2084,40 +2092,45 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396573</v>
+        <v>396581</v>
       </c>
       <c r="R14" t="n">
-        <v>6849572</v>
+        <v>6849503</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2149,7 +2162,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2159,7 +2172,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2168,28 +2181,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111986256</v>
+        <v>111986181</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2202,21 +2216,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2227,13 +2241,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396466</v>
+        <v>396464</v>
       </c>
       <c r="R15" t="n">
-        <v>6849432</v>
+        <v>6849438</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2262,7 +2276,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2272,7 +2286,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2299,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111986412</v>
+        <v>111986331</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>90792</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2311,25 +2325,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2340,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396473</v>
+        <v>396461</v>
       </c>
       <c r="R16" t="n">
-        <v>6849402</v>
+        <v>6849447</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2375,7 +2389,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2385,7 +2399,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2412,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111986181</v>
+        <v>111986477</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>90800</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,25 +2438,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2456,10 +2470,10 @@
         <v>396464</v>
       </c>
       <c r="R17" t="n">
-        <v>6849438</v>
+        <v>6849392</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2488,7 +2502,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2498,7 +2512,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2525,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111983114</v>
+        <v>111986397</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,7 +2574,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2569,20 +2583,19 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396581</v>
+        <v>396473</v>
       </c>
       <c r="R18" t="n">
-        <v>6849503</v>
+        <v>6849402</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2611,7 +2624,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2621,7 +2634,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2630,7 +2643,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2649,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111986397</v>
+        <v>111983769</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90800</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2661,51 +2673,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396473</v>
+        <v>396581</v>
       </c>
       <c r="R19" t="n">
-        <v>6849402</v>
+        <v>6849503</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2734,7 +2739,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2744,7 +2749,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2753,6 +2758,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2771,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986477</v>
+        <v>112037911</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>78202</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2783,42 +2789,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396464</v>
+        <v>396463</v>
       </c>
       <c r="R20" t="n">
-        <v>6849392</v>
+        <v>6849431</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2845,19 +2850,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>15:58</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>15:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2872,22 +2867,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111983867</v>
+        <v>111986518</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90812</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,52 +2891,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396555</v>
+        <v>396446</v>
       </c>
       <c r="R21" t="n">
-        <v>6849625</v>
+        <v>6849382</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2970,7 +2955,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2980,7 +2965,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2989,7 +2974,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3008,10 +2992,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986331</v>
+        <v>111986256</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90794</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3024,21 +3008,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3049,10 +3033,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396461</v>
+        <v>396466</v>
       </c>
       <c r="R22" t="n">
-        <v>6849447</v>
+        <v>6849432</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3121,10 +3105,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111983769</v>
+        <v>111983867</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,29 +3117,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
@@ -3164,10 +3156,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396581</v>
+        <v>396555</v>
       </c>
       <c r="R23" t="n">
-        <v>6849503</v>
+        <v>6849625</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3199,7 +3191,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3209,7 +3201,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3237,10 +3229,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111983778</v>
+        <v>112060422</v>
       </c>
       <c r="B24" t="n">
-        <v>90678</v>
+        <v>90794</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3249,44 +3241,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396581</v>
+        <v>396456</v>
       </c>
       <c r="R24" t="n">
-        <v>6849503</v>
+        <v>6849454</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3313,19 +3313,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>14:02</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3341,22 +3331,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986518</v>
+        <v>112116465</v>
       </c>
       <c r="B25" t="n">
-        <v>90678</v>
+        <v>76616</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,42 +3355,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>6487</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396446</v>
+        <v>396463</v>
       </c>
       <c r="R25" t="n">
-        <v>6849382</v>
+        <v>6849376</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3427,19 +3416,14 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>16:06</t>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3454,22 +3438,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112037911</v>
+        <v>112116466</v>
       </c>
       <c r="B26" t="n">
-        <v>78081</v>
+        <v>76616</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3482,21 +3466,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3506,7 +3490,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396463</v>
+        <v>396468</v>
       </c>
       <c r="R26" t="n">
         <v>6849431</v>
@@ -3542,6 +3526,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3568,10 +3557,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112037904</v>
+        <v>112116463</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>77389</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3580,25 +3569,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3608,13 +3597,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396313</v>
+        <v>396463</v>
       </c>
       <c r="R27" t="n">
-        <v>6849479</v>
+        <v>6849376</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3663,17 +3652,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112060422</v>
+        <v>111986603</v>
       </c>
       <c r="B28" t="n">
-        <v>90660</v>
+        <v>90800</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3682,52 +3671,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>396456</v>
+        <v>396364</v>
       </c>
       <c r="R28" t="n">
-        <v>6849454</v>
+        <v>6849420</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3754,40 +3733,49 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>16:12</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112060421</v>
+        <v>111986488</v>
       </c>
       <c r="B29" t="n">
-        <v>90660</v>
+        <v>90812</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3796,43 +3784,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>396291</v>
+        <v>396364</v>
       </c>
       <c r="R29" t="n">
-        <v>6849409</v>
+        <v>6849420</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3859,40 +3846,49 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112116465</v>
+        <v>111986344</v>
       </c>
       <c r="B30" t="n">
-        <v>76495</v>
+        <v>77389</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3905,37 +3901,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>396463</v>
+        <v>396364</v>
       </c>
       <c r="R30" t="n">
-        <v>6849376</v>
+        <v>6849420</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3962,14 +3959,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3984,22 +3986,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112116466</v>
+        <v>112037904</v>
       </c>
       <c r="B31" t="n">
-        <v>76495</v>
+        <v>90800</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4008,25 +4010,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6487</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4036,13 +4038,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>396468</v>
+        <v>396313</v>
       </c>
       <c r="R31" t="n">
-        <v>6849431</v>
+        <v>6849479</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4072,11 +4074,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4103,10 +4100,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112116463</v>
+        <v>112060421</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>90794</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4119,34 +4116,36 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>396463</v>
+        <v>396291</v>
       </c>
       <c r="R32" t="n">
-        <v>6849376</v>
+        <v>6849409</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4187,6 +4186,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -2777,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112037911</v>
+        <v>111986518</v>
       </c>
       <c r="B20" t="n">
-        <v>78202</v>
+        <v>90812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2789,41 +2789,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396463</v>
+        <v>396446</v>
       </c>
       <c r="R20" t="n">
-        <v>6849431</v>
+        <v>6849382</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2850,9 +2851,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2867,22 +2878,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111986518</v>
+        <v>111986256</v>
       </c>
       <c r="B21" t="n">
-        <v>90812</v>
+        <v>90794</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2891,25 +2902,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2920,10 +2931,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396446</v>
+        <v>396466</v>
       </c>
       <c r="R21" t="n">
-        <v>6849382</v>
+        <v>6849432</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2955,7 +2966,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2965,7 +2976,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2992,10 +3003,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986256</v>
+        <v>112037911</v>
       </c>
       <c r="B22" t="n">
-        <v>90794</v>
+        <v>78202</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3008,38 +3019,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396466</v>
+        <v>396463</v>
       </c>
       <c r="R22" t="n">
-        <v>6849432</v>
+        <v>6849431</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3066,19 +3076,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>15:50</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3093,12 +3093,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111983502</v>
+        <v>111983468</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111983468</v>
+        <v>111983171</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396573</v>
+        <v>396563</v>
       </c>
       <c r="R4" t="n">
-        <v>6849572</v>
+        <v>6849514</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1012,22 +1012,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111986100</v>
+        <v>111986336</v>
       </c>
       <c r="B5" t="n">
-        <v>78202</v>
+        <v>90858</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,24 +1040,33 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229821</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1065,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396462</v>
+        <v>396473</v>
       </c>
       <c r="R5" t="n">
-        <v>6849446</v>
+        <v>6849418</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1100,7 +1109,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1119,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1140,7 +1149,7 @@
         <v>111983004</v>
       </c>
       <c r="B6" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111983171</v>
+        <v>111986100</v>
       </c>
       <c r="B7" t="n">
-        <v>77389</v>
+        <v>78216</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396563</v>
+        <v>396462</v>
       </c>
       <c r="R7" t="n">
-        <v>6849514</v>
+        <v>6849446</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,7 +1344,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1345,7 +1354,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1372,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111986336</v>
+        <v>111983592</v>
       </c>
       <c r="B8" t="n">
-        <v>90844</v>
+        <v>77403</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,33 +1397,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396473</v>
+        <v>396573</v>
       </c>
       <c r="R8" t="n">
-        <v>6849418</v>
+        <v>6849572</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,22 +1482,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983592</v>
+        <v>111983752</v>
       </c>
       <c r="B9" t="n">
-        <v>77389</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,25 +1506,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1728,7 +1728,7 @@
         <v>111982899</v>
       </c>
       <c r="B11" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111986412</v>
+        <v>111986477</v>
       </c>
       <c r="B12" t="n">
-        <v>90812</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1863,21 +1863,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396473</v>
+        <v>396464</v>
       </c>
       <c r="R12" t="n">
-        <v>6849402</v>
+        <v>6849392</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111983778</v>
+        <v>111983769</v>
       </c>
       <c r="B13" t="n">
-        <v>90812</v>
+        <v>90814</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1976,21 +1976,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111983114</v>
+        <v>112037911</v>
       </c>
       <c r="B14" t="n">
-        <v>90794</v>
+        <v>78216</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2092,48 +2092,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396581</v>
+        <v>396463</v>
       </c>
       <c r="R14" t="n">
-        <v>6849503</v>
+        <v>6849431</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2160,50 +2149,39 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111986181</v>
+        <v>111983114</v>
       </c>
       <c r="B15" t="n">
-        <v>90792</v>
+        <v>90808</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,35 +2194,45 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396464</v>
+        <v>396581</v>
       </c>
       <c r="R15" t="n">
-        <v>6849438</v>
+        <v>6849503</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2276,7 +2264,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2286,7 +2274,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2295,6 +2283,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2313,10 +2302,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111986331</v>
+        <v>111983778</v>
       </c>
       <c r="B16" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,42 +2314,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396461</v>
+        <v>396581</v>
       </c>
       <c r="R16" t="n">
-        <v>6849447</v>
+        <v>6849503</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2389,7 +2380,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2399,7 +2390,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2408,6 +2399,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2426,10 +2418,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111986477</v>
+        <v>111986397</v>
       </c>
       <c r="B17" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,28 +2430,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2467,10 +2468,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396464</v>
+        <v>396473</v>
       </c>
       <c r="R17" t="n">
-        <v>6849392</v>
+        <v>6849402</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2539,10 +2540,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111986397</v>
+        <v>111986256</v>
       </c>
       <c r="B18" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2572,16 +2573,7 @@
           <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2589,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396473</v>
+        <v>396466</v>
       </c>
       <c r="R18" t="n">
-        <v>6849402</v>
+        <v>6849432</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2624,7 +2616,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2634,7 +2626,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2661,10 +2653,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111983769</v>
+        <v>111986412</v>
       </c>
       <c r="B19" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,40 +2669,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396581</v>
+        <v>396473</v>
       </c>
       <c r="R19" t="n">
-        <v>6849503</v>
+        <v>6849402</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2739,7 +2729,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2749,7 +2739,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2758,7 +2748,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2777,10 +2766,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111986518</v>
+        <v>111983867</v>
       </c>
       <c r="B20" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2789,42 +2778,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396446</v>
+        <v>396555</v>
       </c>
       <c r="R20" t="n">
-        <v>6849382</v>
+        <v>6849625</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2853,7 +2852,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2863,7 +2862,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2872,6 +2871,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111986256</v>
+        <v>111986181</v>
       </c>
       <c r="B21" t="n">
-        <v>90794</v>
+        <v>90806</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,21 +2906,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396466</v>
+        <v>396464</v>
       </c>
       <c r="R21" t="n">
-        <v>6849432</v>
+        <v>6849438</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3003,10 +3003,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112037911</v>
+        <v>111986331</v>
       </c>
       <c r="B22" t="n">
-        <v>78202</v>
+        <v>90806</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3019,37 +3019,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>229821</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396463</v>
+        <v>396461</v>
       </c>
       <c r="R22" t="n">
-        <v>6849431</v>
+        <v>6849447</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3076,9 +3077,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3093,22 +3104,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111983867</v>
+        <v>111986518</v>
       </c>
       <c r="B23" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3117,52 +3128,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396555</v>
+        <v>396446</v>
       </c>
       <c r="R23" t="n">
-        <v>6849625</v>
+        <v>6849382</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3191,7 +3192,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3201,7 +3202,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3210,7 +3211,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>112060422</v>
       </c>
       <c r="B24" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>112116465</v>
       </c>
       <c r="B25" t="n">
-        <v>76616</v>
+        <v>76630</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>112116466</v>
       </c>
       <c r="B26" t="n">
-        <v>76616</v>
+        <v>76630</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>112116463</v>
       </c>
       <c r="B27" t="n">
-        <v>77389</v>
+        <v>77403</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111986603</v>
+        <v>111986330</v>
       </c>
       <c r="B28" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3675,21 +3675,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3772,10 +3772,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111986488</v>
+        <v>111986344</v>
       </c>
       <c r="B29" t="n">
-        <v>90812</v>
+        <v>77403</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3784,25 +3784,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3819,7 +3819,7 @@
         <v>6849420</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3885,10 +3885,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111986344</v>
+        <v>111986603</v>
       </c>
       <c r="B30" t="n">
-        <v>77389</v>
+        <v>90814</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3897,25 +3897,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3932,7 +3932,7 @@
         <v>6849420</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4001,7 +4001,7 @@
         <v>112037904</v>
       </c>
       <c r="B31" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>112060421</v>
       </c>
       <c r="B32" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111983468</v>
+        <v>111986336</v>
       </c>
       <c r="B3" t="n">
-        <v>77650</v>
+        <v>90858</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,24 +814,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>396573</v>
+        <v>396473</v>
       </c>
       <c r="R3" t="n">
-        <v>6849572</v>
+        <v>6849418</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,7 +883,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +893,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,22 +908,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111983171</v>
+        <v>111986100</v>
       </c>
       <c r="B4" t="n">
-        <v>77403</v>
+        <v>78216</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +936,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>396563</v>
+        <v>396462</v>
       </c>
       <c r="R4" t="n">
-        <v>6849514</v>
+        <v>6849446</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,7 +996,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +1006,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111986336</v>
+        <v>111982899</v>
       </c>
       <c r="B5" t="n">
-        <v>90858</v>
+        <v>90826</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,30 +1045,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1074,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396473</v>
+        <v>396589</v>
       </c>
       <c r="R5" t="n">
-        <v>6849418</v>
+        <v>6849419</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1109,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1119,7 +1128,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111983004</v>
+        <v>111983592</v>
       </c>
       <c r="B6" t="n">
-        <v>90808</v>
+        <v>77403</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,33 +1171,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396551</v>
+        <v>396573</v>
       </c>
       <c r="R6" t="n">
-        <v>6849477</v>
+        <v>6849572</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,22 +1256,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111986100</v>
+        <v>111986330</v>
       </c>
       <c r="B7" t="n">
-        <v>78216</v>
+        <v>90826</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,25 +1280,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>396462</v>
+        <v>396364</v>
       </c>
       <c r="R7" t="n">
-        <v>6849446</v>
+        <v>6849420</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>15:54</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1369,22 +1369,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111983592</v>
+        <v>111986603</v>
       </c>
       <c r="B8" t="n">
-        <v>77403</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,25 +1393,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>396573</v>
+        <v>396364</v>
       </c>
       <c r="R8" t="n">
-        <v>6849572</v>
+        <v>6849420</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111983752</v>
+        <v>111983906</v>
       </c>
       <c r="B9" t="n">
-        <v>90814</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,29 +1506,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
@@ -1570,7 +1575,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1580,7 +1585,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1607,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111983906</v>
+        <v>111983502</v>
       </c>
       <c r="B10" t="n">
-        <v>56430</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,34 +1624,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Mellandammen (Mellandammen), Dlr</t>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1725,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111982899</v>
+        <v>111983468</v>
       </c>
       <c r="B11" t="n">
-        <v>90826</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1737,37 +1737,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1775,10 +1766,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>396589</v>
+        <v>396573</v>
       </c>
       <c r="R11" t="n">
-        <v>6849419</v>
+        <v>6849572</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,7 +1801,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1820,7 +1811,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1835,22 +1826,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111986477</v>
+        <v>111986344</v>
       </c>
       <c r="B12" t="n">
-        <v>90814</v>
+        <v>77403</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,25 +1850,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1888,13 +1879,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>396464</v>
+        <v>396364</v>
       </c>
       <c r="R12" t="n">
-        <v>6849392</v>
+        <v>6849420</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1923,7 +1914,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1933,7 +1924,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,22 +1939,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111983769</v>
+        <v>111983004</v>
       </c>
       <c r="B13" t="n">
-        <v>90814</v>
+        <v>90808</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,41 +1963,48 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>396581</v>
+        <v>396551</v>
       </c>
       <c r="R13" t="n">
-        <v>6849503</v>
+        <v>6849477</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2038,7 +2036,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2048,7 +2046,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2057,29 +2055,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112037911</v>
+        <v>111983171</v>
       </c>
       <c r="B14" t="n">
-        <v>78216</v>
+        <v>77403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2092,37 +2089,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>396463</v>
+        <v>396563</v>
       </c>
       <c r="R14" t="n">
-        <v>6849431</v>
+        <v>6849514</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2149,9 +2147,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>14:04</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2166,22 +2174,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111983114</v>
+        <v>111983867</v>
       </c>
       <c r="B15" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2194,26 +2202,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2229,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>396581</v>
+        <v>396555</v>
       </c>
       <c r="R15" t="n">
-        <v>6849503</v>
+        <v>6849625</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2274,7 +2282,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2302,7 +2310,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111983778</v>
+        <v>111986518</v>
       </c>
       <c r="B16" t="n">
         <v>90826</v>
@@ -2336,22 +2344,20 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>396581</v>
+        <v>396446</v>
       </c>
       <c r="R16" t="n">
-        <v>6849503</v>
+        <v>6849382</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2380,7 +2386,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2390,7 +2396,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2399,7 +2405,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2418,10 +2423,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111986397</v>
+        <v>111986181</v>
       </c>
       <c r="B17" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2434,33 +2439,24 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2468,13 +2464,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>396473</v>
+        <v>396464</v>
       </c>
       <c r="R17" t="n">
-        <v>6849402</v>
+        <v>6849438</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2503,7 +2499,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2513,7 +2509,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2540,10 +2536,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111986256</v>
+        <v>112037911</v>
       </c>
       <c r="B18" t="n">
-        <v>90808</v>
+        <v>78216</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2556,38 +2552,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>396466</v>
+        <v>396463</v>
       </c>
       <c r="R18" t="n">
-        <v>6849432</v>
+        <v>6849431</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2614,19 +2609,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>15:50</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2641,22 +2626,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111986412</v>
+        <v>111983114</v>
       </c>
       <c r="B19" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2665,42 +2650,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>396473</v>
+        <v>396581</v>
       </c>
       <c r="R19" t="n">
-        <v>6849402</v>
+        <v>6849503</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2729,7 +2724,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2739,7 +2734,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2748,6 +2743,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2766,10 +2762,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111983867</v>
+        <v>111983778</v>
       </c>
       <c r="B20" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2778,37 +2774,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -2817,10 +2805,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>396555</v>
+        <v>396581</v>
       </c>
       <c r="R20" t="n">
-        <v>6849625</v>
+        <v>6849503</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2852,7 +2840,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2862,7 +2850,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2890,10 +2878,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111986181</v>
+        <v>112037904</v>
       </c>
       <c r="B21" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,42 +2890,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>396464</v>
+        <v>396313</v>
       </c>
       <c r="R21" t="n">
-        <v>6849438</v>
+        <v>6849479</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2964,19 +2951,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>14:36</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>14:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2991,22 +2968,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bo karlstens</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986331</v>
+        <v>111986477</v>
       </c>
       <c r="B22" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3015,25 +2992,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3044,10 +3021,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396461</v>
+        <v>396464</v>
       </c>
       <c r="R22" t="n">
-        <v>6849447</v>
+        <v>6849392</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3079,7 +3056,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3089,7 +3066,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3116,10 +3093,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111986518</v>
+        <v>111983769</v>
       </c>
       <c r="B23" t="n">
-        <v>90826</v>
+        <v>90814</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3132,38 +3109,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396446</v>
+        <v>396581</v>
       </c>
       <c r="R23" t="n">
-        <v>6849382</v>
+        <v>6849503</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3192,7 +3171,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3202,7 +3181,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3211,6 +3190,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3229,10 +3209,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112060422</v>
+        <v>111986331</v>
       </c>
       <c r="B24" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3245,45 +3225,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396456</v>
+        <v>396461</v>
       </c>
       <c r="R24" t="n">
-        <v>6849454</v>
+        <v>6849447</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3313,40 +3283,49 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112116465</v>
+        <v>111986412</v>
       </c>
       <c r="B25" t="n">
-        <v>76630</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3355,41 +3334,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6487</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396463</v>
+        <v>396473</v>
       </c>
       <c r="R25" t="n">
-        <v>6849376</v>
+        <v>6849402</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3416,14 +3396,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3438,22 +3423,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112116466</v>
+        <v>111986397</v>
       </c>
       <c r="B26" t="n">
-        <v>76630</v>
+        <v>90808</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3466,37 +3451,47 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6487</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>396468</v>
+        <v>396473</v>
       </c>
       <c r="R26" t="n">
-        <v>6849431</v>
+        <v>6849402</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3523,14 +3518,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>15:58</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Silvervedsstubbe</t>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3545,22 +3545,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112116463</v>
+        <v>111986256</v>
       </c>
       <c r="B27" t="n">
-        <v>77403</v>
+        <v>90808</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3573,37 +3573,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Mellandammen, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>396463</v>
+        <v>396466</v>
       </c>
       <c r="R27" t="n">
-        <v>6849376</v>
+        <v>6849432</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3630,9 +3631,19 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3647,22 +3658,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Bo karlstens</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
+          <t>Bo karlstens, Göran Ehn, Erik Danielsson, Kajsa Larsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111986330</v>
+        <v>112060422</v>
       </c>
       <c r="B28" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3671,42 +3682,52 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>396364</v>
+        <v>396456</v>
       </c>
       <c r="R28" t="n">
-        <v>6849420</v>
+        <v>6849454</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3733,49 +3754,40 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>15:54</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>15:54</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111986344</v>
+        <v>112060421</v>
       </c>
       <c r="B29" t="n">
-        <v>77403</v>
+        <v>90808</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3788,38 +3800,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>396364</v>
+        <v>396291</v>
       </c>
       <c r="R29" t="n">
-        <v>6849420</v>
+        <v>6849409</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3846,49 +3859,40 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>15:55</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>15:55</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson, Bo karlstens, Erik Danielsson, Göran Ehn, Håkan Thenander, Kajsa Larsson, Lisa Olson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111986603</v>
+        <v>112116463</v>
       </c>
       <c r="B30" t="n">
-        <v>90814</v>
+        <v>77403</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3897,42 +3901,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>396364</v>
+        <v>396463</v>
       </c>
       <c r="R30" t="n">
-        <v>6849420</v>
+        <v>6849376</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3959,19 +3962,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>16:12</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>16:12</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3986,22 +3979,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Lars-Erik Nilsson, Erik Danielsson, Bo karlstens, Kajsa Larsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112037904</v>
+        <v>112116466</v>
       </c>
       <c r="B31" t="n">
-        <v>90814</v>
+        <v>76630</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4010,25 +4003,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>6487</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4038,13 +4031,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>396313</v>
+        <v>396468</v>
       </c>
       <c r="R31" t="n">
-        <v>6849479</v>
+        <v>6849431</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4074,6 +4067,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4100,10 +4098,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112060421</v>
+        <v>112116465</v>
       </c>
       <c r="B32" t="n">
-        <v>90808</v>
+        <v>76630</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4116,36 +4114,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>6487</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Mellandammen, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>396291</v>
+        <v>396463</v>
       </c>
       <c r="R32" t="n">
-        <v>6849409</v>
+        <v>6849376</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4180,13 +4176,17 @@
           <t>2023-09-09</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Silvervedsstubbe</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 30214-2023.xlsx
+++ b/artfynd/A 30214-2023.xlsx
@@ -1033,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111982899</v>
+        <v>111983592</v>
       </c>
       <c r="B5" t="n">
-        <v>90826</v>
+        <v>77403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,37 +1045,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1083,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>396589</v>
+        <v>396573</v>
       </c>
       <c r="R5" t="n">
-        <v>6849419</v>
+        <v>6849572</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1109,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,7 +1119,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,22 +1134,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
+          <t>Erik Danielsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111983592</v>
+        <v>111982899</v>
       </c>
       <c r="B6" t="n">
-        <v>77403</v>
+        <v>90826</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,28 +1158,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>396573</v>
+        <v>396589</v>
       </c>
       <c r="R6" t="n">
-        <v>6849572</v>
+        <v>6849419</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,12 +1256,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Erik Danielsson</t>
+          <t>Göran Ehn, Bo karlstens, Kajsa Larsson, Erik Danielsson, Lars-Erik Nilsson, Lisa Olson, Håkan Thenander</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111983114</v>
+        <v>111983778</v>
       </c>
       <c r="B19" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2650,37 +2650,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2762,10 +2754,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111983778</v>
+        <v>111983114</v>
       </c>
       <c r="B20" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2774,29 +2766,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -2980,7 +2980,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111986477</v>
+        <v>111983769</v>
       </c>
       <c r="B22" t="n">
         <v>90814</v>
@@ -3014,20 +3014,22 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Mellandammen (Mellandammen), Dlr</t>
+          <t>mellandammen S.om, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>396464</v>
+        <v>396581</v>
       </c>
       <c r="R22" t="n">
-        <v>6849392</v>
+        <v>6849503</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3056,7 +3058,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3066,7 +3068,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3075,6 +3077,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111983769</v>
+        <v>111986477</v>
       </c>
       <c r="B23" t="n">
         <v>90814</v>
@@ -3127,22 +3130,20 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>mellandammen S.om, Dlr</t>
+          <t>Mellandammen (Mellandammen), Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>396581</v>
+        <v>396464</v>
       </c>
       <c r="R23" t="n">
-        <v>6849503</v>
+        <v>6849392</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3171,7 +3172,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3181,7 +3182,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3190,7 +3191,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111986331</v>
+        <v>111986412</v>
       </c>
       <c r="B24" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3221,25 +3221,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>396461</v>
+        <v>396473</v>
       </c>
       <c r="R24" t="n">
-        <v>6849447</v>
+        <v>6849402</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3322,10 +3322,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111986412</v>
+        <v>111986331</v>
       </c>
       <c r="B25" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3334,25 +3334,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>396473</v>
+        <v>396461</v>
       </c>
       <c r="R25" t="n">
-        <v>6849402</v>
+        <v>6849447</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="AD25" t="b">
